--- a/console/Networking/kubernetesExcel/list.xlsx
+++ b/console/Networking/kubernetesExcel/list.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\1.15\Console_190116-译文-提交\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>list_i18nKey_1</t>
   </si>
@@ -58,9 +53,6 @@
     </r>
   </si>
   <si>
-    <t>Help Documentation of JCS for Kubernetes</t>
-  </si>
-  <si>
     <t>list_i18nKey_3</t>
   </si>
   <si>
@@ -126,9 +118,6 @@
     </r>
   </si>
   <si>
-    <t>Cluster Version</t>
-  </si>
-  <si>
     <t>list_i18nKey_7</t>
   </si>
   <si>
@@ -143,9 +132,6 @@
     </r>
   </si>
   <si>
-    <t>Node Number</t>
-  </si>
-  <si>
     <t>list_i18nKey_8</t>
   </si>
   <si>
@@ -177,9 +163,6 @@
     </r>
   </si>
   <si>
-    <t>Running Period</t>
-  </si>
-  <si>
     <t>list_i18nKey_10</t>
   </si>
   <si>
@@ -192,9 +175,6 @@
       </rPr>
       <t>操作</t>
     </r>
-  </si>
-  <si>
-    <t>Operations</t>
   </si>
   <si>
     <t>list_i18nKey_11</t>
@@ -271,19 +251,47 @@
     </r>
   </si>
   <si>
-    <t>No available JCS for Kubernetes, please</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Create cluster</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Deletion task submitted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Task creation submitted </t>
+    <t>Help Documentation of JCS for Kubernetes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Documentation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No available Kubernetes cluster, please</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cluster Version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deletion task submitted successfully</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creation task submitted successfully</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master Version</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -291,7 +299,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -318,6 +326,17 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -339,9 +358,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -681,176 +702,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="26.875" style="1"/>
-    <col min="3" max="3" width="52.375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="26.875" style="1"/>
+    <col min="3" max="3" width="52.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41.625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="26.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="C7" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C10" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C12" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="C13" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>41</v>
+      <c r="C14" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:B14" numberStoredAsText="1"/>
   </ignoredErrors>
